--- a/db/products.xlsx
+++ b/db/products.xlsx
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
-    <sheet name="Boucherie raw" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
+    <sheet name="Boucherie raw" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="477">
   <si>
     <t>product_category</t>
   </si>
@@ -1147,13 +1149,325 @@
   </si>
   <si>
     <t>Boucherie</t>
+  </si>
+  <si>
+    <t>name/_title</t>
+  </si>
+  <si>
+    <t>Le Plaisir Iodé</t>
+  </si>
+  <si>
+    <t>Huitres spécial grands crus</t>
+  </si>
+  <si>
+    <t>Le classique</t>
+  </si>
+  <si>
+    <t>Formule crabe</t>
+  </si>
+  <si>
+    <t>Formule homard</t>
+  </si>
+  <si>
+    <t>Formule duo</t>
+  </si>
+  <si>
+    <t>Le royal</t>
+  </si>
+  <si>
+    <t>Formule Crabe en KIT</t>
+  </si>
+  <si>
+    <t>Formule Homard en KIT</t>
+  </si>
+  <si>
+    <t>Formule Duo en KIT</t>
+  </si>
+  <si>
+    <t>price cent</t>
+  </si>
+  <si>
+    <t>Shop_category</t>
+  </si>
+  <si>
+    <t>Product_category</t>
+  </si>
+  <si>
+    <t>Plateau d'huitres</t>
+  </si>
+  <si>
+    <t>Plateau spécial 12 huîtres pour 1 personne.</t>
+  </si>
+  <si>
+    <t>Plateau spécial 12 huîtres grands crus pour 1 personne.</t>
+  </si>
+  <si>
+    <t>Plateau de fruits de mer classique pour 1 personne.</t>
+  </si>
+  <si>
+    <t>Plateau de fruits de mer pour 1 personne avec un demi-crabe.</t>
+  </si>
+  <si>
+    <t>Plateau de fruits de mer pour 1 personne avec un demi-homard.</t>
+  </si>
+  <si>
+    <t>Plateau de fruits de mer pour 2 personnes.</t>
+  </si>
+  <si>
+    <t>Plateau de fruits de mer Royal pour 1 personne.</t>
+  </si>
+  <si>
+    <t>Prix à la part. Votre formule est préparée dans un colis avec rince doigts, citron, algues. A vous de le dresser sur assiette, plat ou plateau polystyrène. *Photo non contractuelle. Photo d'illustration.</t>
+  </si>
+  <si>
+    <t>Prix pour 2 parts. Votre formule est préparée dans un colis avec rince doigts, citron, algues. A vous de le dresser sur assiette, plat ou plateau polystyrène. *Photo non contractuelle. Photo d'illustration.</t>
+  </si>
+  <si>
+    <t>Price_cents</t>
+  </si>
+  <si>
+    <t>Prodcut_category</t>
+  </si>
+  <si>
+    <t>Plateau en kit</t>
+  </si>
+  <si>
+    <t>Poissonerie</t>
+  </si>
+  <si>
+    <t>Primeur</t>
+  </si>
+  <si>
+    <t>prix_link/_text</t>
+  </si>
+  <si>
+    <t>Ail sec violet la tête env 100g 0,90€</t>
+  </si>
+  <si>
+    <t>Artichaut poivrade la botte 2,80€</t>
+  </si>
+  <si>
+    <t>Asperge verte la botte 500g 4,95€</t>
+  </si>
+  <si>
+    <t>Aubergine la pièce env 330g 0,84€</t>
+  </si>
+  <si>
+    <t>Barbucine la barquette 300g 3,95€</t>
+  </si>
+  <si>
+    <t>Bette le pied env. 500 g 1,48€</t>
+  </si>
+  <si>
+    <t>Betterave crue les 500g 0,98€</t>
+  </si>
+  <si>
+    <t>Betterave longue les 500g 1,98€</t>
+  </si>
+  <si>
+    <t>Betterave rapée barq.200g 1,00€</t>
+  </si>
+  <si>
+    <t>Betterave ronde les 500g 1,98€</t>
+  </si>
+  <si>
+    <t>Betterave s/vide les 500g 1,20€</t>
+  </si>
+  <si>
+    <t>Blanc de poireau Barq. 400g 3,50€</t>
+  </si>
+  <si>
+    <t>Brocoli les 500g 1,25€</t>
+  </si>
+  <si>
+    <t>Butter Nut le kilo 2,50€</t>
+  </si>
+  <si>
+    <t>Carotte botte la botte 2,20€</t>
+  </si>
+  <si>
+    <t>Carotte des sables les 500g 0,80€</t>
+  </si>
+  <si>
+    <t>Carotte lavée le kilo 0,99€</t>
+  </si>
+  <si>
+    <t>Carotte rapée barq.200g 1,00€</t>
+  </si>
+  <si>
+    <t>Carotte rondelle barq. 500g 1,50€</t>
+  </si>
+  <si>
+    <t>Carotte sac de 10 kilos 7,00€</t>
+  </si>
+  <si>
+    <t>Cèleri rave demi env. 500g 1,00€</t>
+  </si>
+  <si>
+    <t>Cèleri rave pièce env. 1kg 1,95€</t>
+  </si>
+  <si>
+    <t>Céleris branche la branche 0,35€</t>
+  </si>
+  <si>
+    <t>Céleris branche le demi pied 1,48€</t>
+  </si>
+  <si>
+    <t>Céleris branche le pied entier 2,95€</t>
+  </si>
+  <si>
+    <t>Champignon blanc les 250g 0,99€</t>
+  </si>
+  <si>
+    <t>Champignon crème FRANCE les 250g 1,13€</t>
+  </si>
+  <si>
+    <t>Champignon émincé barq 250g 2,00€</t>
+  </si>
+  <si>
+    <t>Champignon Lentin de chêne les 100g 1,80€</t>
+  </si>
+  <si>
+    <t>Champignon Pleurote les 250g 3,00€</t>
+  </si>
+  <si>
+    <t>Chou Blanc demi env.800g 1,28€</t>
+  </si>
+  <si>
+    <t>Chou blanc rapé barq.150g 1,00€</t>
+  </si>
+  <si>
+    <t>Chou chinois le kilo 2,50€</t>
+  </si>
+  <si>
+    <t>Chou de bruxelles les 500g 1,98€</t>
+  </si>
+  <si>
+    <t>Chou Fleur la pièce 1,60€</t>
+  </si>
+  <si>
+    <t>Chou Romanesco la pièce 1,80€</t>
+  </si>
+  <si>
+    <t>Ananas Avion pièce env. 1,5 kg 5,95€</t>
+  </si>
+  <si>
+    <t>Ananas entier épluché 4,00€</t>
+  </si>
+  <si>
+    <t>Ananas sweet la pièce 3,50€</t>
+  </si>
+  <si>
+    <t>Ananas Victoria la pièce environ 600g 4,80€</t>
+  </si>
+  <si>
+    <t>Avocat la piéce 1,40€</t>
+  </si>
+  <si>
+    <t>Banane le kilo 1,95€</t>
+  </si>
+  <si>
+    <t>Carambole la pièce 1,95€</t>
+  </si>
+  <si>
+    <t>Citron jaune BIO la pièce 0,70€</t>
+  </si>
+  <si>
+    <t>Citron jaune la pièce 0,50€</t>
+  </si>
+  <si>
+    <t>Citron vert la pièce 0,55€</t>
+  </si>
+  <si>
+    <t>Clémentine Ori Israël le kilo 2,95€</t>
+  </si>
+  <si>
+    <t>Clémentine Socculente le kilo 4,95€</t>
+  </si>
+  <si>
+    <t>Fraise Clery la barquette de 250g 4,95€</t>
+  </si>
+  <si>
+    <t>Fraise Gariguette Francaise les 250 grs 4,95€</t>
+  </si>
+  <si>
+    <t>Fraise la barquette de 500 g 3,95€</t>
+  </si>
+  <si>
+    <t>Framboise la barq de 125g 2,95€</t>
+  </si>
+  <si>
+    <t>Fruit de la passion les 100g 1,60€</t>
+  </si>
+  <si>
+    <t>Grenade la pièce env. 500g 3,95€</t>
+  </si>
+  <si>
+    <t>Groseille la barquette de 125g 3,95€</t>
+  </si>
+  <si>
+    <t>Kiwi (A) la pièce 0,45€</t>
+  </si>
+  <si>
+    <t>Kiwi (B) les 5 pièces 2,00€</t>
+  </si>
+  <si>
+    <t>Kiwi (C) les 10 pièces 3,50€</t>
+  </si>
+  <si>
+    <t>Mangue Avion la pièce 4,95€</t>
+  </si>
+  <si>
+    <t>Melon la pièce 2,50€</t>
+  </si>
+  <si>
+    <t>Melon Promo les 2 pièces 4,00€</t>
+  </si>
+  <si>
+    <t>Mini Banane sachet 250g env. 3,50€</t>
+  </si>
+  <si>
+    <t>Mûre la barquette 125g 2,95€</t>
+  </si>
+  <si>
+    <t>Myrtille la barquette 125g 2,95€</t>
+  </si>
+  <si>
+    <t>Noisette les 500 grs 3,48€</t>
+  </si>
+  <si>
+    <t>Noix coco la pièce 2,40€</t>
+  </si>
+  <si>
+    <t>Noix Sèche les 500 grs 3,48€</t>
+  </si>
+  <si>
+    <t>Orange Lane-late douce à manger et à jus le kilo 1,60€</t>
+  </si>
+  <si>
+    <t>Orange Maltaise légèrement acidulé à manger ou à jus le kilo 1,60€</t>
+  </si>
+  <si>
+    <t>Physalis la barquette 1,95€</t>
+  </si>
+  <si>
+    <t>Poire Comice le kilo 2,40€</t>
+  </si>
+  <si>
+    <t>Poire Conférence le kilo 2,40€</t>
+  </si>
+  <si>
+    <t>Légumes</t>
+  </si>
+  <si>
+    <t>Fruits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1184,6 +1498,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1207,10 +1526,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1490,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1700,13 +2023,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>366</v>
       </c>
       <c r="E12" s="2">
-        <v>940</v>
+        <v>1792.0000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1717,13 +2040,13 @@
         <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>366</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2">
-        <v>1792.0000000000002</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1734,13 +2057,13 @@
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2">
-        <v>2398</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1751,13 +2074,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="E15" s="2">
-        <v>1117</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1768,13 +2091,13 @@
         <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2">
-        <v>540</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1785,13 +2108,13 @@
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2">
-        <v>1641</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1802,13 +2125,13 @@
         <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>364</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2">
-        <v>3415</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1819,13 +2142,13 @@
         <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2">
-        <v>5334</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1836,13 +2159,13 @@
         <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2">
-        <v>683</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1853,13 +2176,13 @@
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2">
-        <v>3451</v>
+        <v>857</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1870,13 +2193,13 @@
         <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2">
-        <v>1198</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1887,13 +2210,13 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2">
-        <v>857</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1904,13 +2227,13 @@
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2">
-        <v>2818</v>
+        <v>867</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1921,13 +2244,13 @@
         <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2">
-        <v>1529</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1938,13 +2261,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2">
-        <v>867</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1955,13 +2278,13 @@
         <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2">
-        <v>479</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1972,13 +2295,13 @@
         <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2">
-        <v>2499</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -1989,13 +2312,13 @@
         <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2">
-        <v>2599</v>
+        <v>816</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2006,13 +2329,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2">
-        <v>397</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2023,13 +2346,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2">
-        <v>816</v>
+        <v>636</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2040,13 +2363,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>363</v>
       </c>
       <c r="E32" s="2">
-        <v>1120</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2057,13 +2380,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2">
-        <v>636</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2074,13 +2397,13 @@
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2">
-        <v>577</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2091,13 +2414,13 @@
         <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2">
-        <v>1309</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2108,13 +2431,13 @@
         <v>30</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2">
-        <v>2427</v>
+        <v>1907.9999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2125,13 +2448,13 @@
         <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2">
-        <v>1068</v>
+        <v>3513.0000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2142,13 +2465,13 @@
         <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2">
-        <v>1907.9999999999998</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2159,13 +2482,13 @@
         <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2">
-        <v>3513.0000000000005</v>
+        <v>639</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2176,13 +2499,13 @@
         <v>30</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2">
-        <v>576</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2193,13 +2516,13 @@
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2">
-        <v>639</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2210,13 +2533,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2">
-        <v>1496</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2227,13 +2550,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2">
-        <v>7288</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2244,13 +2567,13 @@
         <v>30</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2">
-        <v>1466</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2261,13 +2584,13 @@
         <v>30</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2">
-        <v>1023</v>
+        <v>955.00000000000011</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2278,13 +2601,13 @@
         <v>30</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2">
-        <v>2900</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2295,13 +2618,13 @@
         <v>30</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2">
-        <v>955.00000000000011</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2312,13 +2635,13 @@
         <v>30</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2">
-        <v>453</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2329,13 +2652,13 @@
         <v>30</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="E49" s="2">
-        <v>369</v>
+        <v>448.00000000000006</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2346,13 +2669,13 @@
         <v>30</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2">
-        <v>103</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2360,16 +2683,16 @@
         <v>372</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>344</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>362</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2">
-        <v>448.00000000000006</v>
+        <v>982</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2377,16 +2700,16 @@
         <v>372</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>344</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2">
-        <v>2500</v>
+        <v>825</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2397,13 +2720,13 @@
         <v>344</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2">
-        <v>982</v>
+        <v>821.00000000000011</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2414,13 +2737,13 @@
         <v>344</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="E54" s="2">
-        <v>825</v>
+        <v>683</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2431,13 +2754,13 @@
         <v>344</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2">
-        <v>821.00000000000011</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2448,13 +2771,13 @@
         <v>344</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>367</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2">
-        <v>683</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2465,13 +2788,13 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>360</v>
       </c>
       <c r="E57" s="2">
-        <v>2241</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2482,13 +2805,13 @@
         <v>344</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>118</v>
+        <v>361</v>
       </c>
       <c r="E58" s="2">
-        <v>1093</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2499,13 +2822,13 @@
         <v>344</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>360</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2">
-        <v>622</v>
+        <v>931</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2516,13 +2839,13 @@
         <v>344</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>361</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2">
-        <v>1298</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2533,13 +2856,13 @@
         <v>344</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>122</v>
+        <v>368</v>
       </c>
       <c r="E61" s="2">
-        <v>931</v>
+        <v>639</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2550,13 +2873,13 @@
         <v>344</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2">
-        <v>2926</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2567,13 +2890,13 @@
         <v>344</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>368</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2">
-        <v>639</v>
+        <v>924</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2584,13 +2907,13 @@
         <v>344</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2">
-        <v>1984</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2601,13 +2924,13 @@
         <v>344</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E65" s="2">
-        <v>924</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2618,13 +2941,13 @@
         <v>344</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2">
-        <v>2301</v>
+        <v>657</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2635,13 +2958,13 @@
         <v>344</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E67" s="2">
-        <v>4710</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2649,16 +2972,16 @@
         <v>372</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>135</v>
+        <v>358</v>
       </c>
       <c r="E68" s="2">
-        <v>657</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2666,16 +2989,16 @@
         <v>372</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E69" s="2">
-        <v>375</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2686,13 +3009,13 @@
         <v>345</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>358</v>
+        <v>142</v>
       </c>
       <c r="E70" s="2">
-        <v>1429</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2703,13 +3026,13 @@
         <v>345</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="E71" s="2">
-        <v>1427</v>
+        <v>3302.0000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2720,13 +3043,13 @@
         <v>345</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E72" s="2">
-        <v>1123</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2737,13 +3060,13 @@
         <v>345</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>359</v>
+        <v>147</v>
       </c>
       <c r="E73" s="2">
-        <v>3302.0000000000005</v>
+        <v>952.99999999999989</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2754,13 +3077,13 @@
         <v>345</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E74" s="2">
-        <v>1250</v>
+        <v>833</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2771,13 +3094,13 @@
         <v>345</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E75" s="2">
-        <v>952.99999999999989</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2788,13 +3111,13 @@
         <v>345</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E76" s="2">
-        <v>833</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2805,13 +3128,13 @@
         <v>345</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E77" s="2">
-        <v>1154</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2822,13 +3145,13 @@
         <v>345</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E78" s="2">
-        <v>666</v>
+        <v>732</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2839,13 +3162,13 @@
         <v>345</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E79" s="2">
-        <v>2442</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2856,13 +3179,13 @@
         <v>345</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E80" s="2">
-        <v>732</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2873,13 +3196,13 @@
         <v>345</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>161</v>
+        <v>357</v>
       </c>
       <c r="E81" s="2">
-        <v>5769</v>
+        <v>638</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2890,13 +3213,13 @@
         <v>345</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E82" s="2">
-        <v>1197</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2907,13 +3230,13 @@
         <v>345</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>357</v>
+        <v>168</v>
       </c>
       <c r="E83" s="2">
-        <v>638</v>
+        <v>779</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2924,13 +3247,13 @@
         <v>345</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E84" s="2">
-        <v>1110</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2941,13 +3264,13 @@
         <v>345</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E85" s="2">
-        <v>779</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2958,13 +3281,13 @@
         <v>345</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E86" s="2">
-        <v>3365</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2975,13 +3298,13 @@
         <v>345</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E87" s="2">
-        <v>4275</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -2992,13 +3315,13 @@
         <v>345</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E88" s="2">
-        <v>2821</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3009,13 +3332,13 @@
         <v>345</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E89" s="2">
-        <v>2930</v>
+        <v>757</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3026,13 +3349,13 @@
         <v>345</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E90" s="2">
-        <v>3335</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3043,13 +3366,13 @@
         <v>345</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E91" s="2">
-        <v>757</v>
+        <v>2019.0000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3060,13 +3383,13 @@
         <v>345</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E92" s="2">
-        <v>2707</v>
+        <v>795</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3077,13 +3400,13 @@
         <v>345</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E93" s="2">
-        <v>2019.0000000000002</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3094,13 +3417,13 @@
         <v>345</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E94" s="2">
-        <v>795</v>
+        <v>774</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3111,13 +3434,13 @@
         <v>345</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E95" s="2">
-        <v>1128</v>
+        <v>858</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3128,13 +3451,13 @@
         <v>345</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E96" s="2">
-        <v>774</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3145,13 +3468,13 @@
         <v>345</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E97" s="2">
-        <v>858</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3162,13 +3485,13 @@
         <v>345</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E98" s="2">
-        <v>1221</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3179,13 +3502,13 @@
         <v>345</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E99" s="2">
-        <v>2593</v>
+        <v>855.00000000000011</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3193,16 +3516,16 @@
         <v>372</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>198</v>
+        <v>356</v>
       </c>
       <c r="E100" s="2">
-        <v>4891</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3210,16 +3533,16 @@
         <v>372</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E101" s="2">
-        <v>855.00000000000011</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3230,13 +3553,13 @@
         <v>31</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>356</v>
+        <v>205</v>
       </c>
       <c r="E102" s="2">
-        <v>1907</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3247,13 +3570,13 @@
         <v>31</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E103" s="2">
-        <v>1297</v>
+        <v>478</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3264,13 +3587,13 @@
         <v>31</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E104" s="2">
-        <v>1155</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3281,13 +3604,13 @@
         <v>31</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E105" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3298,13 +3621,13 @@
         <v>31</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E106" s="2">
-        <v>1521</v>
+        <v>479</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3315,13 +3638,13 @@
         <v>31</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="E107" s="2">
-        <v>468</v>
+        <v>699</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3332,13 +3655,13 @@
         <v>31</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E108" s="2">
-        <v>479</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3349,13 +3672,13 @@
         <v>31</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>355</v>
+        <v>218</v>
       </c>
       <c r="E109" s="2">
-        <v>699</v>
+        <v>836.99999999999989</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3366,13 +3689,13 @@
         <v>31</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E110" s="2">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3383,13 +3706,13 @@
         <v>31</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E111" s="2">
-        <v>836.99999999999989</v>
+        <v>782</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3400,13 +3723,13 @@
         <v>31</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E112" s="2">
-        <v>483</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3417,13 +3740,13 @@
         <v>31</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E113" s="2">
-        <v>782</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3434,13 +3757,13 @@
         <v>31</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E114" s="2">
-        <v>1140</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3451,13 +3774,13 @@
         <v>31</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E115" s="2">
-        <v>484</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3468,13 +3791,13 @@
         <v>31</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="E116" s="2">
-        <v>2335</v>
+        <v>763</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3485,13 +3808,13 @@
         <v>31</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E117" s="2">
-        <v>1086</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3502,13 +3825,13 @@
         <v>31</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>354</v>
+        <v>235</v>
       </c>
       <c r="E118" s="2">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3519,13 +3842,13 @@
         <v>31</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E119" s="2">
-        <v>2242</v>
+        <v>641</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3536,13 +3859,13 @@
         <v>31</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E120" s="2">
-        <v>749</v>
+        <v>938.00000000000011</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3553,13 +3876,13 @@
         <v>31</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E121" s="2">
-        <v>641</v>
+        <v>977</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3570,13 +3893,13 @@
         <v>31</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="E122" s="2">
-        <v>938.00000000000011</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3587,13 +3910,13 @@
         <v>31</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="E123" s="2">
-        <v>977</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3604,13 +3927,13 @@
         <v>31</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="E124" s="2">
-        <v>513</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3621,13 +3944,13 @@
         <v>31</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>353</v>
+        <v>247</v>
       </c>
       <c r="E125" s="2">
-        <v>513</v>
+        <v>1955.9999999999998</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3638,13 +3961,13 @@
         <v>31</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E126" s="2">
-        <v>1560</v>
+        <v>1955.9999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3655,13 +3978,13 @@
         <v>31</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E127" s="2">
-        <v>1955.9999999999998</v>
+        <v>651</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3669,16 +3992,16 @@
         <v>372</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="E128" s="2">
-        <v>1955.9999999999998</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3686,16 +4009,16 @@
         <v>372</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E129" s="2">
-        <v>651</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3706,13 +4029,13 @@
         <v>346</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E130" s="2">
-        <v>398</v>
+        <v>952.99999999999989</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3723,13 +4046,13 @@
         <v>346</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E131" s="2">
-        <v>1533</v>
+        <v>974</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3740,13 +4063,13 @@
         <v>346</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>351</v>
+        <v>258</v>
       </c>
       <c r="E132" s="2">
-        <v>952.99999999999989</v>
+        <v>861</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3757,13 +4080,13 @@
         <v>346</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E133" s="2">
-        <v>974</v>
+        <v>633</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3774,13 +4097,13 @@
         <v>346</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E134" s="2">
-        <v>861</v>
+        <v>482</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3791,13 +4114,13 @@
         <v>346</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E135" s="2">
-        <v>633</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3808,13 +4131,13 @@
         <v>346</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E136" s="2">
-        <v>482</v>
+        <v>836.99999999999989</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3825,13 +4148,13 @@
         <v>346</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E137" s="2">
-        <v>1955</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3842,13 +4165,13 @@
         <v>346</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E138" s="2">
-        <v>836.99999999999989</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3859,13 +4182,13 @@
         <v>346</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E139" s="2">
-        <v>1065</v>
+        <v>1873.9999999999998</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3876,13 +4199,13 @@
         <v>346</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="E140" s="2">
-        <v>1722</v>
+        <v>609</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3893,13 +4216,13 @@
         <v>346</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E141" s="2">
-        <v>1873.9999999999998</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3910,13 +4233,13 @@
         <v>346</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="E142" s="2">
-        <v>609</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3927,13 +4250,13 @@
         <v>346</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E143" s="2">
-        <v>3190</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3944,13 +4267,13 @@
         <v>346</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E144" s="2">
-        <v>358</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3961,13 +4284,13 @@
         <v>346</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E145" s="2">
-        <v>2274</v>
+        <v>551</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3978,13 +4301,13 @@
         <v>346</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E146" s="2">
-        <v>1135</v>
+        <v>671</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3995,13 +4318,13 @@
         <v>346</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>283</v>
+        <v>91</v>
       </c>
       <c r="E147" s="2">
-        <v>551</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4012,13 +4335,13 @@
         <v>346</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>285</v>
+        <v>91</v>
       </c>
       <c r="E148" s="2">
-        <v>671</v>
+        <v>690</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4029,13 +4352,13 @@
         <v>346</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>91</v>
+        <v>289</v>
       </c>
       <c r="E149" s="2">
-        <v>525</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4046,13 +4369,13 @@
         <v>346</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>91</v>
+        <v>291</v>
       </c>
       <c r="E150" s="2">
-        <v>690</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4063,13 +4386,13 @@
         <v>346</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E151" s="2">
-        <v>344</v>
+        <v>997.00000000000011</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4080,13 +4403,13 @@
         <v>346</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E152" s="2">
-        <v>1652</v>
+        <v>470</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4097,13 +4420,13 @@
         <v>346</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E153" s="2">
-        <v>997.00000000000011</v>
+        <v>864</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4114,13 +4437,13 @@
         <v>346</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E154" s="2">
-        <v>470</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4131,13 +4454,13 @@
         <v>346</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E155" s="2">
-        <v>864</v>
+        <v>641</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4148,13 +4471,13 @@
         <v>346</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E156" s="2">
-        <v>1359</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4165,13 +4488,13 @@
         <v>346</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E157" s="2">
-        <v>641</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4182,13 +4505,13 @@
         <v>346</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E158" s="2">
-        <v>1200</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4199,13 +4522,13 @@
         <v>346</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E159" s="2">
-        <v>2258</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4216,13 +4539,13 @@
         <v>346</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>307</v>
+        <v>91</v>
       </c>
       <c r="E160" s="2">
-        <v>1350</v>
+        <v>565</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4233,13 +4556,13 @@
         <v>346</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E161" s="2">
-        <v>1517</v>
+        <v>742</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4250,13 +4573,13 @@
         <v>346</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E162" s="2">
-        <v>565</v>
+        <v>610</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4267,13 +4590,13 @@
         <v>346</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="E163" s="2">
-        <v>742</v>
+        <v>516</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4281,16 +4604,16 @@
         <v>372</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="E164" s="2">
-        <v>610</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4298,16 +4621,16 @@
         <v>372</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="E165" s="2">
-        <v>516</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4318,13 +4641,13 @@
         <v>347</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E166" s="2">
-        <v>345</v>
+        <v>386</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4335,13 +4658,13 @@
         <v>347</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E167" s="2">
-        <v>1017</v>
+        <v>843</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4352,13 +4675,13 @@
         <v>347</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E168" s="2">
-        <v>386</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4369,13 +4692,13 @@
         <v>347</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E169" s="2">
-        <v>843</v>
+        <v>991</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4386,13 +4709,13 @@
         <v>347</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E170" s="2">
-        <v>450</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4403,13 +4726,13 @@
         <v>347</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>328</v>
+        <v>91</v>
       </c>
       <c r="E171" s="2">
-        <v>991</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4420,13 +4743,13 @@
         <v>347</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>330</v>
+        <v>91</v>
       </c>
       <c r="E172" s="2">
-        <v>1636</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4437,13 +4760,13 @@
         <v>347</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>91</v>
+        <v>334</v>
       </c>
       <c r="E173" s="2">
-        <v>1268</v>
+        <v>655</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4454,13 +4777,13 @@
         <v>347</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>91</v>
+        <v>336</v>
       </c>
       <c r="E174" s="2">
-        <v>450</v>
+        <v>802.99999999999989</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4471,13 +4794,13 @@
         <v>347</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E175" s="2">
-        <v>655</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4488,13 +4811,13 @@
         <v>347</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E176" s="2">
-        <v>802.99999999999989</v>
+        <v>449</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4505,13 +4828,13 @@
         <v>347</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>338</v>
+        <v>91</v>
       </c>
       <c r="E177" s="2">
-        <v>445</v>
+        <v>390</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4522,47 +4845,1263 @@
         <v>347</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E178" s="2">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E179" s="5">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E180" s="5">
+        <v>1998.9999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E181" s="5">
+        <v>1998.9999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E182" s="5">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E183" s="5">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E184" s="5">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E185" s="5">
+        <v>6998.9999999999991</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E186" s="5">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E187" s="5">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E188" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B189" t="s">
+        <v>475</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B190" t="s">
+        <v>475</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B191" t="s">
+        <v>475</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B192" t="s">
+        <v>475</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B193" t="s">
+        <v>475</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B194" t="s">
+        <v>475</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D194" s="3"/>
+      <c r="E194" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B195" t="s">
+        <v>475</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D195" s="3"/>
+      <c r="E195" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B196" t="s">
+        <v>475</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D196" s="3"/>
+      <c r="E196" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B197" t="s">
+        <v>475</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B198" t="s">
+        <v>475</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B199" t="s">
+        <v>475</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B200" t="s">
+        <v>475</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D200" s="3"/>
+      <c r="E200" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B201" t="s">
+        <v>475</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B202" t="s">
+        <v>475</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D202" s="3"/>
+      <c r="E202" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B203" t="s">
+        <v>475</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203" s="6">
+        <v>220.00000000000003</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B204" t="s">
+        <v>475</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B205" t="s">
+        <v>475</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D205" s="3"/>
+      <c r="E205" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B206" t="s">
+        <v>475</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B207" t="s">
+        <v>475</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B208" t="s">
+        <v>475</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B209" t="s">
+        <v>475</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D209" s="3"/>
+      <c r="E209" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B210" t="s">
+        <v>475</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D210" s="3"/>
+      <c r="E210" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B211" t="s">
+        <v>475</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D211" s="3"/>
+      <c r="E211" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B212" t="s">
+        <v>475</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D212" s="3"/>
+      <c r="E212" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B213" t="s">
+        <v>475</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B214" t="s">
+        <v>475</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="E214" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B215" t="s">
+        <v>475</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D215" s="3"/>
+      <c r="E215" s="6">
+        <v>112.99999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B216" t="s">
+        <v>475</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B217" t="s">
+        <v>475</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D217" s="3"/>
+      <c r="E217" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B218" t="s">
+        <v>475</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D218" s="3"/>
+      <c r="E218" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B219" t="s">
+        <v>475</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D219" s="3"/>
+      <c r="E219" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B220" t="s">
+        <v>475</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D220" s="3"/>
+      <c r="E220" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B221" t="s">
+        <v>475</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D221" s="3"/>
+      <c r="E221" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B222" t="s">
+        <v>475</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D222" s="3"/>
+      <c r="E222" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B223" t="s">
+        <v>475</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D223" s="3"/>
+      <c r="E223" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B224" t="s">
+        <v>475</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D224" s="3"/>
+      <c r="E224" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B225" t="s">
+        <v>476</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D225" s="3"/>
+      <c r="E225" s="6">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B226" t="s">
+        <v>476</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D226" s="3"/>
+      <c r="E226" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B227" t="s">
+        <v>476</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D227" s="3"/>
+      <c r="E227" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B228" t="s">
+        <v>476</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D228" s="3"/>
+      <c r="E228" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B229" t="s">
+        <v>476</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D229" s="3"/>
+      <c r="E229" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B230" t="s">
+        <v>476</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D230" s="3"/>
+      <c r="E230" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B231" t="s">
+        <v>476</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D231" s="3"/>
+      <c r="E231" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B232" t="s">
+        <v>476</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D232" s="3"/>
+      <c r="E232" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B233" t="s">
+        <v>476</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D233" s="3"/>
+      <c r="E233" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B234" t="s">
+        <v>476</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D234" s="3"/>
+      <c r="E234" s="6">
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B235" t="s">
+        <v>476</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>372</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E179" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>372</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E180" s="2">
-        <v>2472</v>
+      <c r="D235" s="3"/>
+      <c r="E235" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B236" t="s">
+        <v>476</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D236" s="3"/>
+      <c r="E236" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B237" t="s">
+        <v>476</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D237" s="3"/>
+      <c r="E237" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B238" t="s">
+        <v>476</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D238" s="3"/>
+      <c r="E238" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B239" t="s">
+        <v>476</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D239" s="3"/>
+      <c r="E239" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B240" t="s">
+        <v>476</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D240" s="3"/>
+      <c r="E240" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B241" t="s">
+        <v>476</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D241" s="3"/>
+      <c r="E241" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B242" t="s">
+        <v>476</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D242" s="3"/>
+      <c r="E242" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B243" t="s">
+        <v>476</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D243" s="3"/>
+      <c r="E243" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B244" t="s">
+        <v>476</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D244" s="3"/>
+      <c r="E244" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B245" t="s">
+        <v>476</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B246" t="s">
+        <v>476</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D246" s="3"/>
+      <c r="E246" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B247" t="s">
+        <v>476</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D247" s="3"/>
+      <c r="E247" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B248" t="s">
+        <v>476</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D248" s="3"/>
+      <c r="E248" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B249" t="s">
+        <v>476</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D249" s="3"/>
+      <c r="E249" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B250" t="s">
+        <v>476</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D250" s="3"/>
+      <c r="E250" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B251" t="s">
+        <v>476</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D251" s="3"/>
+      <c r="E251" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B252" t="s">
+        <v>476</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D252" s="3"/>
+      <c r="E252" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B253" t="s">
+        <v>476</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D253" s="3"/>
+      <c r="E253" s="6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B254" t="s">
+        <v>476</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D254" s="3"/>
+      <c r="E254" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B255" t="s">
+        <v>476</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D255" s="3"/>
+      <c r="E255" s="6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B256" t="s">
+        <v>476</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D256" s="3"/>
+      <c r="E256" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B257" t="s">
+        <v>476</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D257" s="3"/>
+      <c r="E257" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B258" t="s">
+        <v>476</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D258" s="3"/>
+      <c r="E258" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B259" t="s">
+        <v>476</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D259" s="3"/>
+      <c r="E259" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B260" t="s">
+        <v>476</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D260" s="3"/>
+      <c r="E260" s="6">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4571,6 +6110,1216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6">
+        <v>220.00000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>475</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>475</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>475</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>475</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>475</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>475</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="6">
+        <v>112.99999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>475</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>475</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>475</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>475</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>475</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>475</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>475</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>475</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>476</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="6">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>476</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>476</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>476</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>476</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>476</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>476</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>476</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>476</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>476</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="6">
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>476</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>476</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>476</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>476</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>476</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>476</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>476</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>476</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>476</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>476</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>476</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>476</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>476</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>476</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>476</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>476</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>476</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>476</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>476</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>476</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>476</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>476</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>476</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>476</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>476</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>476</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="6">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1998.9999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1998.9999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6998.9999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E173"/>
   <sheetViews>
